--- a/datasource/A.xlsx
+++ b/datasource/A.xlsx
@@ -1266,8 +1266,8 @@
   </sheetPr>
   <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="D19" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1554,7 +1554,7 @@
       <c r="J9" s="19"/>
       <c r="K9" s="19"/>
       <c r="L9" s="19">
-        <v>44595</v>
+        <v>44594</v>
       </c>
       <c r="M9" s="17" t="s">
         <v>29</v>
@@ -1587,7 +1587,7 @@
       <c r="J10" s="19"/>
       <c r="K10" s="19"/>
       <c r="L10" s="19">
-        <v>44596</v>
+        <v>44594</v>
       </c>
       <c r="M10" s="17" t="s">
         <v>29</v>
@@ -1609,7 +1609,7 @@
         <v>25</v>
       </c>
       <c r="E11" s="19">
-        <v>44596</v>
+        <v>44595</v>
       </c>
       <c r="F11" s="17" t="s">
         <v>23</v>
@@ -1620,7 +1620,7 @@
       <c r="J11" s="19"/>
       <c r="K11" s="19"/>
       <c r="L11" s="19">
-        <v>44597</v>
+        <v>44594</v>
       </c>
       <c r="M11" s="17" t="s">
         <v>30</v>
@@ -1653,7 +1653,7 @@
       <c r="J12" s="19"/>
       <c r="K12" s="19"/>
       <c r="L12" s="19">
-        <v>44598</v>
+        <v>44594</v>
       </c>
       <c r="M12" s="17" t="s">
         <v>30</v>
@@ -1675,7 +1675,7 @@
         <v>25</v>
       </c>
       <c r="E13" s="19">
-        <v>44598</v>
+        <v>44597</v>
       </c>
       <c r="F13" s="17" t="s">
         <v>23</v>
@@ -1686,7 +1686,7 @@
       <c r="J13" s="19"/>
       <c r="K13" s="19"/>
       <c r="L13" s="19">
-        <v>44599</v>
+        <v>44594</v>
       </c>
       <c r="M13" s="17" t="s">
         <v>30</v>
@@ -1706,7 +1706,7 @@
         <v>25</v>
       </c>
       <c r="E14" s="19">
-        <v>44599</v>
+        <v>44595</v>
       </c>
       <c r="F14" s="17" t="s">
         <v>23</v>
@@ -2166,7 +2166,7 @@
         <v>25</v>
       </c>
       <c r="E28" s="19">
-        <v>44613</v>
+        <v>44615</v>
       </c>
       <c r="F28" s="17" t="s">
         <v>68</v>
@@ -2199,7 +2199,7 @@
         <v>25</v>
       </c>
       <c r="E29" s="19">
-        <v>44613</v>
+        <v>44615</v>
       </c>
       <c r="F29" s="17" t="s">
         <v>26</v>
@@ -2232,7 +2232,7 @@
         <v>25</v>
       </c>
       <c r="E30" s="19">
-        <v>44613</v>
+        <v>44615</v>
       </c>
       <c r="F30" s="17" t="s">
         <v>26</v>
@@ -2463,7 +2463,7 @@
         <v>25</v>
       </c>
       <c r="E37" s="19">
-        <v>44622</v>
+        <v>44615</v>
       </c>
       <c r="F37" s="17" t="s">
         <v>28</v>
